--- a/processamentos/mapeamento_analise/df_root_Batch_23.xlsx
+++ b/processamentos/mapeamento_analise/df_root_Batch_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\processamentos\mapeamento_analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC6B8A4-262D-4741-B604-640ABEBB1EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E77C8F-C03F-4F85-A2CE-56438E0F9715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>

--- a/processamentos/mapeamento_analise/df_root_Batch_23.xlsx
+++ b/processamentos/mapeamento_analise/df_root_Batch_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\dani-boy\extractNF\processamentos\mapeamento_analise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEBDD77-8A2D-4769-9296-0AEB603AA8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79621FA0-192F-481B-87F0-52475CEE581A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,9 +94,6 @@
     <t>4433a03b-d30a-4c92-80fc-015912e1f357</t>
   </si>
   <si>
-    <t>('26/09/2023 16:16:39',)</t>
-  </si>
-  <si>
     <t>Batch_23</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>393a4eab-4b10-48e4-8d06-2fecadfa3b48</t>
   </si>
   <si>
-    <t>('26/09/2023 16:16:50',)</t>
-  </si>
-  <si>
     <t>Livro de Registro do ISSQN.pdf</t>
   </si>
   <si>
@@ -326,6 +320,12 @@
   </si>
   <si>
     <t>pipeline_extracao_documentos/2_documentos_para_extracao/21_aguardando_processamento/Batch_23/MESQUITA_PDF_31282023_2258/138565/B4066C58-F309-42E4-A992-55EB8961211E.PDF</t>
+  </si>
+  <si>
+    <t>26/09/2023 16:16:39</t>
+  </si>
+  <si>
+    <t>26/09/2023 16:16:50</t>
   </si>
 </sst>
 </file>
@@ -381,10 +381,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -690,20 +693,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.453125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" customWidth="1"/>
     <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.26953125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="138.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
@@ -799,94 +802,94 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
       </c>
       <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>37</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>38</v>
-      </c>
-      <c r="W2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
         <v>41</v>
-      </c>
-      <c r="K3" t="s">
-        <v>42</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -901,63 +904,63 @@
         <v>0.71646290525899625</v>
       </c>
       <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>44</v>
-      </c>
-      <c r="R3" t="s">
-        <v>45</v>
       </c>
       <c r="S3">
         <v>3</v>
       </c>
       <c r="T3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
         <v>46</v>
       </c>
-      <c r="V3" t="s">
-        <v>47</v>
-      </c>
       <c r="W3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
         <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>51</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -966,63 +969,63 @@
         <v>4</v>
       </c>
       <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
         <v>52</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>53</v>
-      </c>
-      <c r="R4" t="s">
-        <v>54</v>
       </c>
       <c r="S4">
         <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
+      <c r="C5" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1037,63 +1040,63 @@
         <v>0.93286030690070265</v>
       </c>
       <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
       </c>
       <c r="S5">
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>49</v>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1108,63 +1111,63 @@
         <v>0.93256188272150764</v>
       </c>
       <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>44</v>
-      </c>
-      <c r="R6" t="s">
-        <v>45</v>
       </c>
       <c r="S6">
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>49</v>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1179,63 +1182,63 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>44</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
       </c>
       <c r="S7">
         <v>3</v>
       </c>
       <c r="T7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
         <v>29</v>
       </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1250,63 +1253,63 @@
         <v>0.93610232046338615</v>
       </c>
       <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>44</v>
-      </c>
-      <c r="R8" t="s">
-        <v>45</v>
       </c>
       <c r="S8">
         <v>3</v>
       </c>
       <c r="T8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="W8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
+      <c r="C9" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1321,63 +1324,63 @@
         <v>0.93492055113478223</v>
       </c>
       <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>45</v>
       </c>
       <c r="S9">
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>49</v>
+      <c r="C10" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1392,63 +1395,63 @@
         <v>0.93256188272150764</v>
       </c>
       <c r="P10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>44</v>
-      </c>
-      <c r="R10" t="s">
-        <v>45</v>
       </c>
       <c r="S10">
         <v>3</v>
       </c>
       <c r="T10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>49</v>
+      <c r="C11" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="s">
         <v>29</v>
       </c>
-      <c r="I11" t="s">
-        <v>30</v>
-      </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1463,63 +1466,63 @@
         <v>0.81791554575446956</v>
       </c>
       <c r="P11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>44</v>
-      </c>
-      <c r="R11" t="s">
-        <v>45</v>
       </c>
       <c r="S11">
         <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>49</v>
+      <c r="C12" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
         <v>29</v>
       </c>
-      <c r="I12" t="s">
-        <v>30</v>
-      </c>
       <c r="J12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1534,63 +1537,63 @@
         <v>0.80981294729613684</v>
       </c>
       <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>44</v>
-      </c>
-      <c r="R12" t="s">
-        <v>45</v>
       </c>
       <c r="S12">
         <v>3</v>
       </c>
       <c r="T12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>49</v>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1605,63 +1608,63 @@
         <v>0.47371374442967679</v>
       </c>
       <c r="P13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" t="s">
-        <v>44</v>
-      </c>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S13">
         <v>3</v>
       </c>
       <c r="T13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
+      <c r="C14" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>29</v>
       </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
       <c r="J14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1676,28 +1679,28 @@
         <v>0.42334416430218319</v>
       </c>
       <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" t="s">
         <v>43</v>
       </c>
-      <c r="Q14" t="s">
-        <v>44</v>
-      </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S14">
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="W14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
